--- a/Team02Report.xlsx
+++ b/Team02Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrr/Documents/Stevens/555/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/proj/gedcom-linter/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80EC937-729E-A740-94F7-2526BB457885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="11000" windowWidth="33240" windowHeight="26120" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="10360" yWindow="2680" windowWidth="33240" windowHeight="26120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,10 +23,20 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="219">
   <si>
     <t>Find marriage date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,38 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mills</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harlan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hopper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grace</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmills@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grace.hopper@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -245,9 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aturing@stevens.edu</t>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
@@ -260,15 +236,6 @@
     <t>GitHub Username</t>
   </si>
   <si>
-    <t>gracehopper</t>
-  </si>
-  <si>
-    <t>harlanmills</t>
-  </si>
-  <si>
-    <t>enigmacracker</t>
-  </si>
-  <si>
     <t>GitHub Repository:</t>
   </si>
   <si>
@@ -281,9 +248,6 @@
     <t>Bring silverware for everyone</t>
   </si>
   <si>
-    <t>ssw555tmxx2015Fall</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -726,12 +690,69 @@
   </si>
   <si>
     <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>jo</t>
+  </si>
+  <si>
+    <t>joboyle@stevens.edu</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>O'Boyle</t>
+  </si>
+  <si>
+    <t>justinoboyle</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Metzner</t>
+  </si>
+  <si>
+    <t>MaxMetz4</t>
+  </si>
+  <si>
+    <t>mmetzner@stevens.edu</t>
+  </si>
+  <si>
+    <t>jh</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Hornilla</t>
+  </si>
+  <si>
+    <t>jhornill@stevens.edu</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>Irakli</t>
+  </si>
+  <si>
+    <t>Oruashvili</t>
+  </si>
+  <si>
+    <t>iokruash@stevens.edu</t>
+  </si>
+  <si>
+    <t>https://github.com/justinoboyle/gedcom-linter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -790,7 +811,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -856,8 +877,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -884,8 +906,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -950,6 +973,7 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -958,12 +982,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -992,19 +1019,19 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065.0</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078.0</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092.0</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106.0</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120.0</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,24 +1043,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FF0-8D4B-A63D-1F73AD91FD4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1088,14 +1120,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1124,10 +1156,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442.0</c:v>
+                  <c:v>40442</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455.0</c:v>
+                  <c:v>40455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,15 +1171,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D12D-E74D-B083-B21F0A433D94}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1202,7 +1239,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1225,7 +1262,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1257,7 +1300,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1326,7 +1375,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1385,7 +1440,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1448,7 +1509,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="6" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1512,7 +1579,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="7" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1575,7 +1648,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1639,7 +1718,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1976,11 +2061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1988,7 +2073,8 @@
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -2005,80 +2091,98 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
+        <v>203</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
+        <v>207</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
+        <v>212</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{35A349E4-EADC-1F46-8A5A-CDF0D93911DD}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{61B6AAEF-EFEC-394C-B764-FE3159F2F640}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{A76725DF-30AA-594C-AC47-42ED916E4680}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{13516269-42E1-BE4D-B9C7-4C053AF00481}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{4D479D2D-0FEC-9343-A51E-2B5EADCE3965}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2096,53 +2200,53 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2150,13 +2254,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2186,37 +2290,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
@@ -2239,7 +2343,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2255,7 +2359,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2280,7 +2384,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2305,7 +2409,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2330,7 +2434,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2361,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2440,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2459,7 +2563,7 @@
     <col min="9" max="9" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2488,18 +2592,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -2517,51 +2621,51 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -2570,12 +2674,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2584,20 +2688,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -2606,38 +2710,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2657,7 +2761,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2694,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2703,7 +2807,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2739,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2748,7 +2852,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2784,10 +2888,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -2797,477 +2901,477 @@
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>144</v>
       </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="12" t="s">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="12" t="s">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="12" t="s">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="12" t="s">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="12" t="s">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="12" t="s">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="12" t="s">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="12" t="s">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="12" t="s">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="12" t="s">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="12" t="s">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="12" t="s">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="12" t="s">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="12" t="s">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Team02Report.xlsx
+++ b/Team02Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/proj/gedcom-linter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80EC937-729E-A740-94F7-2526BB457885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5518C11-3AF0-2E4B-9869-EAAF6A7D45FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2680" windowWidth="33240" windowHeight="26120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="2680" windowWidth="33240" windowHeight="26120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="219">
   <si>
     <t>Find marriage date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -629,9 +625,6 @@
     <t>T05.03</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>Dates before current date</t>
   </si>
   <si>
@@ -747,6 +740,12 @@
   </si>
   <si>
     <t>https://github.com/justinoboyle/gedcom-linter</t>
+  </si>
+  <si>
+    <t>Unique names</t>
+  </si>
+  <si>
+    <t>Not started</t>
   </si>
 </sst>
 </file>
@@ -2064,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2091,77 +2090,77 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
         <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
         <v>205</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
         <v>206</v>
-      </c>
-      <c r="C4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
         <v>210</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
         <v>214</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="C6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2183,36 +2182,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2220,47 +2219,356 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2583,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2290,37 +2598,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
@@ -2343,7 +2651,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2359,7 +2667,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2384,7 +2692,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2409,7 +2717,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2434,7 +2742,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2594,16 +2902,16 @@
     </row>
     <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -2623,10 +2931,10 @@
     </row>
     <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -2634,10 +2942,10 @@
     </row>
     <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -2645,10 +2953,10 @@
     </row>
     <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2656,16 +2964,16 @@
     </row>
     <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -2676,10 +2984,10 @@
     </row>
     <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2690,7 +2998,7 @@
     </row>
     <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -2701,7 +3009,7 @@
     </row>
     <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -2712,7 +3020,7 @@
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -2721,27 +3029,27 @@
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2891,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2903,475 +3211,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Team02Report.xlsx
+++ b/Team02Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/proj/gedcom-linter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5518C11-3AF0-2E4B-9869-EAAF6A7D45FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317FCAFD-5967-154F-9E0D-1FF187B0DDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2680" windowWidth="33240" windowHeight="26120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="2680" windowWidth="33240" windowHeight="26120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -46,19 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="219">
-  <si>
-    <t>Find marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="197">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,22 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gh(at)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh(hm)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -192,58 +164,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
     <t>GitHub Username</t>
   </si>
   <si>
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -607,24 +537,6 @@
     <t>US42</t>
   </si>
   <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
     <t>Dates before current date</t>
   </si>
   <si>
@@ -746,6 +658,15 @@
   </si>
   <si>
     <t>Not started</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>These initial stories should be fairly trivial to implement. More useful size/time estimates will be given for later sprints</t>
   </si>
 </sst>
 </file>
@@ -756,7 +677,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -785,6 +706,17 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -878,7 +810,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -906,6 +838,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1155,10 +1091,7 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40455</c:v>
+                  <c:v>43151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,10 +1103,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,89 +2008,89 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2182,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2199,19 +2129,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2219,16 +2149,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2236,16 +2166,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2253,16 +2183,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2270,16 +2200,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2287,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2304,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2321,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2338,16 +2268,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2355,220 +2285,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2309,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2598,60 +2324,60 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2667,7 +2393,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2692,7 +2418,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2717,7 +2443,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2742,7 +2468,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2774,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2792,55 +2518,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>40442</v>
+        <v>43151</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>40455</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <f>B2-B3</f>
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
-      <c r="F3" s="9">
-        <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2853,204 +2557,250 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-      <c r="G2">
-        <v>120</v>
-      </c>
-      <c r="H2">
-        <v>90</v>
-      </c>
-      <c r="I2" s="6">
-        <v>40444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>87</v>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="E8">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="28" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="16" spans="1:9" ht="112" x14ac:dyDescent="0.15">
+      <c r="B16" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3071,31 +2821,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3117,31 +2867,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3162,31 +2912,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3199,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3211,475 +2961,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
